--- a/BD Activos  SIGA_ejemplo.xlsx
+++ b/BD Activos  SIGA_ejemplo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datos de Usuarios\T06409\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Trabajo\Proyecto BCP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF28B8A-69AC-4DE6-A0E1-DEBF337D9654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B8F77A-006F-4B35-8665-65C482A5238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A60617E-ADDD-476F-8D6D-2E4F39A47DE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A60617E-ADDD-476F-8D6D-2E4F39A47DE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
@@ -744,7 +744,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1046,7 +1046,7 @@
       <selection activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="17" max="17" width="43" customWidth="1"/>
     <col min="25" max="25" width="23.7109375" customWidth="1"/>
